--- a/NAOMY MUTHONI.xlsx
+++ b/NAOMY MUTHONI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" firstSheet="39" activeTab="40"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" firstSheet="39" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="JUNE " sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="208">
   <si>
     <t xml:space="preserve">NAOMY MUTHONI </t>
   </si>
@@ -678,6 +678,9 @@
   <si>
     <t>JACOB NO.12 EVICTED</t>
   </si>
+  <si>
+    <t>FOR THE MONTH OF DECEMBER   2021</t>
+  </si>
 </sst>
 </file>
 
@@ -32546,7 +32549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -33542,8 +33545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34514,433 +34517,546 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <f>'NOVEMBER 21'!H6:H21</f>
         <v>0</v>
       </c>
-      <c r="C6" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="4">
-        <f>B6+C6+A6</f>
-        <v>1500</v>
-      </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>1500</v>
+      </c>
       <c r="F6" s="4">
-        <f>D6-E6</f>
+        <f>D6+E6+C6</f>
         <v>1500</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
+      <c r="H6" s="4">
+        <f>F6-G6</f>
+        <v>1500</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
         <f>'NOVEMBER 21'!H7:H22</f>
         <v>0</v>
       </c>
-      <c r="C7" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" ref="D7:D21" si="0">B7+C7+A7</f>
-        <v>1500</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>1500</v>
+      </c>
       <c r="F7" s="4">
-        <f>D7-E7</f>
+        <f t="shared" ref="F7:F21" si="0">D7+E7+C7</f>
         <v>1500</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4">
+      <c r="H7" s="4">
+        <f>F7-G7</f>
+        <v>1500</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <f>'NOVEMBER 21'!H8:H23</f>
         <v>0</v>
       </c>
-      <c r="C8" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>1500</v>
+      </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F8:F16" si="1">D8-E8</f>
-        <v>1500</v>
-      </c>
-      <c r="G8" s="4">
-        <v>300</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <f t="shared" ref="H8:H16" si="1">F8-G8</f>
+        <v>1500</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <f>'NOVEMBER 21'!H9:H24</f>
         <v>0</v>
       </c>
-      <c r="C9" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>1500</v>
+      </c>
       <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G9" s="4">
+        <v>900</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="G9" s="4">
-        <v>300</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="4">
+        <v>600</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="4">
         <f>'NOVEMBER 21'!H10:H25</f>
         <v>200</v>
       </c>
-      <c r="C10" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <f>D10-E10</f>
-        <v>1700</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
-        <f>'NOVEMBER 21'!H11:H26</f>
-        <v>0</v>
+      <c r="G10" s="4">
+        <v>200</v>
+      </c>
+      <c r="H10" s="4">
+        <f>F10-G10</f>
+        <v>1500</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
+        <f>'NOVEMBER 21'!H11:H26</f>
         <v>0</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <f>D11-E11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
+      <c r="H11" s="4">
+        <f>F11-G11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <f>'NOVEMBER 21'!H12:H27</f>
         <v>0</v>
       </c>
-      <c r="C12" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>1500</v>
+      </c>
       <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4">
-        <f>'NOVEMBER 21'!H13:H28</f>
-        <v>0</v>
+      <c r="I12" s="4"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
+        <f>'NOVEMBER 21'!H13:H28</f>
         <v>0</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4">
+      <c r="I13" s="4"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <f>'NOVEMBER 21'!H14:H29</f>
         <v>300</v>
       </c>
-      <c r="C14" s="4">
+      <c r="E14" s="4">
         <v>2400</v>
       </c>
-      <c r="D14" s="4">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4">
+      <c r="I14" s="4"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <f>'NOVEMBER 21'!H15:H30</f>
         <v>1800</v>
       </c>
-      <c r="C15" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D15" s="4">
-        <f>B15+C15+A15</f>
+      <c r="E15" s="4">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="4">
+        <f>D15+E15+C15</f>
         <v>3300</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4">
-        <f>'NOVEMBER 21'!H16:H31</f>
-        <v>0</v>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
-        <f t="shared" si="0"/>
+        <f>'NOVEMBER 21'!H16:H31</f>
         <v>0</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4">
-        <f>'NOVEMBER 21'!H17:H32</f>
-        <v>0</v>
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
-        <f t="shared" si="0"/>
+        <f>'NOVEMBER 21'!H17:H32</f>
         <v>0</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
-        <f>D17-E17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="4">
+        <f>F17-G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
         <f>'NOVEMBER 21'!H18:H33</f>
         <v>0</v>
       </c>
-      <c r="C18" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D18" s="4">
-        <f>B18+C18+A18</f>
-        <v>1500</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>1500</v>
+      </c>
       <c r="F18" s="4">
-        <f>D18-E18</f>
+        <f>D18+E18+C18</f>
         <v>1500</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="4">
+        <f>F18-G18</f>
+        <v>1500</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
         <f>'NOVEMBER 21'!H19:H34</f>
         <v>500</v>
       </c>
-      <c r="C19" s="4">
+      <c r="E19" s="4">
         <v>3000</v>
       </c>
-      <c r="D19" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <f>D19-E19</f>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <f>F19-G19</f>
         <v>3500</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4">
-        <f>'NOVEMBER 21'!H20:H35</f>
-        <v>0</v>
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4">
-        <f t="shared" si="0"/>
+        <f>'NOVEMBER 21'!H20:H35</f>
         <v>0</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
-        <f>D20-E20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="4">
+        <f>F20-G20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
         <f>'NOVEMBER 21'!H21:H36</f>
         <v>0</v>
       </c>
-      <c r="C21" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4">
+        <v>1500</v>
+      </c>
       <c r="F21" s="4">
-        <f>D21-E21</f>
-        <v>1500</v>
-      </c>
-      <c r="G21" s="4">
-        <v>300</v>
-      </c>
-      <c r="H21" s="1"/>
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <f>F21-G21</f>
+        <v>1500</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <f t="shared" ref="A22:F22" si="2">SUM(A6:A21)</f>
-        <v>0</v>
-      </c>
-      <c r="B22" s="4">
-        <f>SUM(B6:B21)</f>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:H22" si="2">SUM(C6:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <f>SUM(D6:D21)</f>
         <v>2800</v>
       </c>
-      <c r="C22" s="3">
-        <f>SUM(C6:C21)</f>
+      <c r="E22" s="3">
+        <f>SUM(E6:E21)</f>
         <v>18900</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="2"/>
-        <v>21700</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="2"/>
         <v>21700</v>
       </c>
-      <c r="G22" s="4">
-        <f>SUM(G6:G21)</f>
-        <v>900</v>
-      </c>
-      <c r="H22" s="1"/>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>20600</v>
+      </c>
+      <c r="I22" s="4">
+        <f>SUM(I6:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -34951,267 +35067,304 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="N23">
         <f>12*300</f>
         <v>3600</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
-      <c r="H24" s="21"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="21"/>
       <c r="N24">
         <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="25" t="s">
+        <v>21</v>
+      </c>
       <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
       <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="N25">
         <f>N23-N24</f>
         <v>1600</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="E26" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="F26" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="G26" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="H26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="I26" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="J26" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29">
-        <f>C22</f>
+      <c r="A27" s="1"/>
+      <c r="B27" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29">
+        <f>E22</f>
         <v>18900</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="29">
-        <f>E22</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="29">
+        <f>G22</f>
+        <v>1100</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29">
+      <c r="A28" s="1"/>
+      <c r="B28" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29">
         <f>'NOVEMBER 21'!F37</f>
         <v>200.11500000000524</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="29">
+      <c r="H28" s="29">
         <f>'NOVEMBER 21'!J37</f>
         <v>-6499.8849999999948</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="L28" s="20">
-        <f>B27</f>
-        <v>18900</v>
-      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29">
-        <f>G22</f>
-        <v>900</v>
+      <c r="A29" s="1"/>
+      <c r="B29" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="D29" s="29">
+        <f>I22</f>
+        <v>0</v>
+      </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="L29" s="20">
-        <f>C30</f>
+      <c r="H29" s="29"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="29">
+        <f>D30*D27</f>
         <v>1890</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="30">
+      <c r="F30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="30">
         <v>0.1</v>
       </c>
-      <c r="C30" s="29">
-        <f>B30*B27</f>
+      <c r="I30" s="29">
+        <f>E30</f>
         <v>1890</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="G30" s="29">
-        <f>C30</f>
-        <v>1890</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="L30" s="20">
-        <f>L28-L29</f>
-        <v>17010</v>
-      </c>
+      <c r="J30" s="28"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="L31">
+      <c r="H31" s="33"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
         <v>8000</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="L32" s="20">
-        <f>L30-L31</f>
-        <v>9010</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4">
         <v>8000</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4">
-        <v>8000</v>
-      </c>
-      <c r="H33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29">
-        <f>B27+B28+B29-C30</f>
-        <v>18110.115000000005</v>
-      </c>
-      <c r="C37" s="29">
-        <f>SUM(C32:C36)</f>
+      <c r="A37" s="1"/>
+      <c r="B37" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29">
+        <f>D27+D28+D29-E30</f>
+        <v>17210.115000000005</v>
+      </c>
+      <c r="E37" s="29">
+        <f>SUM(E32:E36)</f>
         <v>8000</v>
       </c>
-      <c r="D37" s="29">
-        <f>B37-C37</f>
-        <v>10110.115000000005</v>
-      </c>
-      <c r="E37" s="28" t="s">
+      <c r="F37" s="29">
+        <f>D37-E37</f>
+        <v>9210.1150000000052</v>
+      </c>
+      <c r="G37" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="29">
-        <f>F27+F28+F29-G30</f>
-        <v>-8389.8849999999948</v>
-      </c>
-      <c r="G37" s="29">
-        <f>SUM(G32:G36)</f>
+      <c r="H37" s="29">
+        <f>H27+H28+H29-I30</f>
+        <v>-7289.8849999999948</v>
+      </c>
+      <c r="I37" s="29">
+        <f>SUM(I32:I36)</f>
         <v>8000</v>
       </c>
-      <c r="H37" s="29">
-        <f>F37-G37</f>
-        <v>-16389.884999999995</v>
+      <c r="J37" s="29">
+        <f>H37-I37</f>
+        <v>-15289.884999999995</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -35222,6 +35375,8 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="L39">
         <f>8000*5</f>
         <v>40000</v>
@@ -35229,17 +35384,21 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -35250,20 +35409,26 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NAOMY MUTHONI.xlsx
+++ b/NAOMY MUTHONI.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="208">
   <si>
     <t xml:space="preserve">NAOMY MUTHONI </t>
   </si>
@@ -33546,7 +33546,7 @@
   <dimension ref="A2:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J42"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33770,11 +33770,12 @@
         <v>1500</v>
       </c>
       <c r="G10" s="4">
-        <v>1300</v>
+        <f>1300+200</f>
+        <v>1500</v>
       </c>
       <c r="H10" s="4">
         <f>F10-G10</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1"/>
@@ -34012,12 +34013,12 @@
         <v>3000</v>
       </c>
       <c r="G19" s="4">
-        <f>2500</f>
-        <v>2500</v>
+        <f>2500+500</f>
+        <v>3000</v>
       </c>
       <c r="H19" s="4">
         <f>F19-G19</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="1"/>
@@ -34101,11 +34102,11 @@
       </c>
       <c r="G22" s="3">
         <f t="shared" si="2"/>
-        <v>18200</v>
+        <v>18900</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="2"/>
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="I22" s="4">
         <f>SUM(I6:I21)</f>
@@ -34211,7 +34212,7 @@
       </c>
       <c r="H27" s="29">
         <f>G22</f>
-        <v>18200</v>
+        <v>18900</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
@@ -34419,7 +34420,7 @@
       </c>
       <c r="H37" s="29">
         <f>H27+H28+H29-I30</f>
-        <v>10510.115000000005</v>
+        <v>11210.115000000005</v>
       </c>
       <c r="I37" s="29">
         <f>SUM(I32:I36)</f>
@@ -34427,7 +34428,7 @@
       </c>
       <c r="J37" s="29">
         <f>H37-I37</f>
-        <v>-6499.8849999999948</v>
+        <v>-5799.8849999999948</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -34517,14 +34518,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -34643,10 +34646,12 @@
         <f t="shared" ref="F7:F21" si="0">D7+E7+C7</f>
         <v>1500</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <v>1500</v>
+      </c>
       <c r="H7" s="4">
         <f>F7-G7</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="1"/>
@@ -34670,12 +34675,16 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <v>1500</v>
+      </c>
       <c r="H8" s="4">
         <f t="shared" ref="H8:H16" si="1">F8-G8</f>
-        <v>1500</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>300</v>
+      </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -34717,21 +34726,21 @@
       <c r="C10" s="28"/>
       <c r="D10" s="4">
         <f>'NOVEMBER 21'!H10:H25</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
         <v>1500</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="G10" s="4">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="H10" s="4">
-        <f>F10-G10</f>
-        <v>1500</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1"/>
@@ -34780,10 +34789,12 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>1500</v>
+      </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="1"/>
@@ -34936,10 +34947,12 @@
         <f>D18+E18+C18</f>
         <v>1500</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4">
+        <v>1500</v>
+      </c>
       <c r="H18" s="4">
         <f>F18-G18</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="1"/>
@@ -34954,19 +34967,21 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4">
         <f>'NOVEMBER 21'!H19:H34</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4">
         <v>3000</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>3000</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3000</v>
+      </c>
       <c r="H19" s="4">
         <f>F19-G19</f>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="1"/>
@@ -35034,7 +35049,7 @@
       </c>
       <c r="D22" s="4">
         <f>SUM(D6:D21)</f>
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
         <f>SUM(E6:E21)</f>
@@ -35042,19 +35057,19 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" si="2"/>
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>11400</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="2"/>
-        <v>20600</v>
+        <v>9600</v>
       </c>
       <c r="I22" s="4">
         <f>SUM(I6:I21)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -35156,7 +35171,7 @@
       </c>
       <c r="H27" s="29">
         <f>G22</f>
-        <v>1100</v>
+        <v>11400</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
@@ -35178,7 +35193,7 @@
       </c>
       <c r="H28" s="29">
         <f>'NOVEMBER 21'!J37</f>
-        <v>-6499.8849999999948</v>
+        <v>-5799.8849999999948</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
@@ -35192,7 +35207,7 @@
       <c r="C29" s="28"/>
       <c r="D29" s="29">
         <f>I22</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -35279,19 +35294,34 @@
         <v>8000</v>
       </c>
       <c r="J33" s="4"/>
+      <c r="L33">
+        <f>E22</f>
+        <v>18900</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="31"/>
+      <c r="B34" s="31" t="s">
+        <v>169</v>
+      </c>
       <c r="C34" s="31"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
+      <c r="E34" s="28">
+        <v>9510</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="31"/>
+      <c r="G34" s="31" t="s">
+        <v>169</v>
+      </c>
       <c r="H34" s="31"/>
-      <c r="I34" s="28"/>
+      <c r="I34" s="28">
+        <v>9510</v>
+      </c>
       <c r="J34" s="28"/>
-      <c r="L34" s="20"/>
+      <c r="L34" s="20">
+        <f>E30</f>
+        <v>1890</v>
+      </c>
       <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -35305,6 +35335,10 @@
       <c r="H35" s="32"/>
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
+      <c r="L35" s="20">
+        <f>L33-L34</f>
+        <v>17010</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -35317,6 +35351,9 @@
       <c r="H36" s="32"/>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
+      <c r="L36">
+        <v>200</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -35326,30 +35363,33 @@
       <c r="C37" s="28"/>
       <c r="D37" s="29">
         <f>D27+D28+D29-E30</f>
-        <v>17210.115000000005</v>
+        <v>17510.115000000005</v>
       </c>
       <c r="E37" s="29">
         <f>SUM(E32:E36)</f>
-        <v>8000</v>
+        <v>17510</v>
       </c>
       <c r="F37" s="29">
         <f>D37-E37</f>
-        <v>9210.1150000000052</v>
+        <v>0.11500000000523869</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="29">
         <f>H27+H28+H29-I30</f>
-        <v>-7289.8849999999948</v>
+        <v>3710.1150000000052</v>
       </c>
       <c r="I37" s="29">
         <f>SUM(I32:I36)</f>
-        <v>8000</v>
+        <v>17510</v>
       </c>
       <c r="J37" s="29">
         <f>H37-I37</f>
-        <v>-15289.884999999995</v>
+        <v>-13799.884999999995</v>
+      </c>
+      <c r="L37">
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -35365,6 +35405,10 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
+      <c r="L38" s="20">
+        <f>L35+L36+L37</f>
+        <v>17510</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -35378,8 +35422,8 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="L39">
-        <f>8000*5</f>
-        <v>40000</v>
+        <f>E33</f>
+        <v>8000</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -35399,6 +35443,10 @@
         <v>46</v>
       </c>
       <c r="J40" s="1"/>
+      <c r="L40" s="20">
+        <f>L38-L39</f>
+        <v>9510</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
